--- a/Code/Results/Cases/Case_6_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.65737462608508</v>
+        <v>18.72501003996804</v>
       </c>
       <c r="C2">
-        <v>12.61585519890206</v>
+        <v>6.441079453248381</v>
       </c>
       <c r="D2">
-        <v>1.804244420029334</v>
+        <v>2.24430255518289</v>
       </c>
       <c r="E2">
-        <v>5.596282092856876</v>
+        <v>6.154642932571773</v>
       </c>
       <c r="F2">
-        <v>44.15487117397517</v>
+        <v>42.00108698463306</v>
       </c>
       <c r="G2">
-        <v>2.142587010075905</v>
+        <v>2.173729832267525</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.887322063288037</v>
+        <v>6.243851074424386</v>
       </c>
       <c r="K2">
-        <v>20.58322556235587</v>
+        <v>14.86849763204637</v>
       </c>
       <c r="L2">
-        <v>7.527133421215221</v>
+        <v>6.882686076048768</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.10342334942976</v>
+        <v>18.44476714647672</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.293603987835</v>
+        <v>17.89444535233694</v>
       </c>
       <c r="C3">
-        <v>11.70112336533285</v>
+        <v>5.995482472337852</v>
       </c>
       <c r="D3">
-        <v>1.844761420560659</v>
+        <v>2.235266315762143</v>
       </c>
       <c r="E3">
-        <v>5.617230170996219</v>
+        <v>6.141924135259051</v>
       </c>
       <c r="F3">
-        <v>43.00399782429586</v>
+        <v>41.3005139422235</v>
       </c>
       <c r="G3">
-        <v>2.154355872834624</v>
+        <v>2.182583613578977</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.935769321637001</v>
+        <v>6.278893815672094</v>
       </c>
       <c r="K3">
-        <v>19.50008723199784</v>
+        <v>14.24899787569244</v>
       </c>
       <c r="L3">
-        <v>7.390151414481351</v>
+        <v>6.7967505757672</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.28838654186311</v>
+        <v>18.55838831239637</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.43971213981529</v>
+        <v>17.37832198291834</v>
       </c>
       <c r="C4">
-        <v>11.11238265150059</v>
+        <v>5.707781047210386</v>
       </c>
       <c r="D4">
-        <v>1.871178149596631</v>
+        <v>2.229147249045177</v>
       </c>
       <c r="E4">
-        <v>5.631334536830492</v>
+        <v>6.136392054809489</v>
       </c>
       <c r="F4">
-        <v>42.32268522464969</v>
+        <v>40.89121131365167</v>
       </c>
       <c r="G4">
-        <v>2.16174374492837</v>
+        <v>2.188167968013204</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.966724300774384</v>
+        <v>6.301833782436759</v>
       </c>
       <c r="K4">
-        <v>18.8226906910373</v>
+        <v>13.86567868977122</v>
       </c>
       <c r="L4">
-        <v>7.309618043408631</v>
+        <v>6.747053866907457</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.40669703619917</v>
+        <v>18.6330335288258</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.0879265771347</v>
+        <v>17.16672991575691</v>
       </c>
       <c r="C5">
-        <v>10.86554602624411</v>
+        <v>5.586950578324521</v>
       </c>
       <c r="D5">
-        <v>1.882288209438745</v>
+        <v>2.226514079637667</v>
       </c>
       <c r="E5">
-        <v>5.637390974374612</v>
+        <v>6.134701233277573</v>
       </c>
       <c r="F5">
-        <v>42.05140973938039</v>
+        <v>40.72962525882057</v>
       </c>
       <c r="G5">
-        <v>2.164797984442215</v>
+        <v>2.190482420896837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.979646396127102</v>
+        <v>6.311538176785469</v>
       </c>
       <c r="K5">
-        <v>18.54381386288351</v>
+        <v>13.70893976859075</v>
       </c>
       <c r="L5">
-        <v>7.277700532508693</v>
+        <v>6.727573095975835</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.45607559067768</v>
+        <v>18.66464858513643</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.02929386080787</v>
+        <v>17.13152760318901</v>
       </c>
       <c r="C6">
-        <v>10.82413815179763</v>
+        <v>5.56666874341813</v>
       </c>
       <c r="D6">
-        <v>1.884152778057097</v>
+        <v>2.226068527115684</v>
       </c>
       <c r="E6">
-        <v>5.638415195755859</v>
+        <v>6.134454244382629</v>
       </c>
       <c r="F6">
-        <v>42.00674905085332</v>
+        <v>40.70310740578272</v>
       </c>
       <c r="G6">
-        <v>2.16530785510469</v>
+        <v>2.190869119809165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.981810794683199</v>
+        <v>6.31317104723659</v>
       </c>
       <c r="K6">
-        <v>18.49734479341361</v>
+        <v>13.68288774138501</v>
       </c>
       <c r="L6">
-        <v>7.272455092323869</v>
+        <v>6.724384865162469</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.46434459996163</v>
+        <v>18.66996965636351</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.43498278328696</v>
+        <v>17.37547311194791</v>
       </c>
       <c r="C7">
-        <v>11.10908187806208</v>
+        <v>5.706166075593109</v>
       </c>
       <c r="D7">
-        <v>1.871326636821149</v>
+        <v>2.229112297254879</v>
       </c>
       <c r="E7">
-        <v>5.631414970148247</v>
+        <v>6.136366982031221</v>
       </c>
       <c r="F7">
-        <v>42.3190009384214</v>
+        <v>40.88901107174291</v>
       </c>
       <c r="G7">
-        <v>2.161784755114714</v>
+        <v>2.188199022528547</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.966897321807482</v>
+        <v>6.301963219384145</v>
       </c>
       <c r="K7">
-        <v>18.81894071893421</v>
+        <v>13.86356672016904</v>
       </c>
       <c r="L7">
-        <v>7.309183944272616</v>
+        <v>6.74678802179443</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.40735828298362</v>
+        <v>18.6334550946815</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19075441348274</v>
+        <v>18.44006372477409</v>
       </c>
       <c r="C8">
-        <v>12.30600954775748</v>
+        <v>6.290337551695332</v>
       </c>
       <c r="D8">
-        <v>1.817867490922764</v>
+        <v>2.241307688891585</v>
       </c>
       <c r="E8">
-        <v>5.603244898059421</v>
+        <v>6.149779341714303</v>
       </c>
       <c r="F8">
-        <v>43.75278745481393</v>
+        <v>41.75518179775302</v>
       </c>
       <c r="G8">
-        <v>2.146613196679506</v>
+        <v>2.176752837958443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.903778317595465</v>
+        <v>6.255637201877158</v>
       </c>
       <c r="K8">
-        <v>20.21246382162302</v>
+        <v>14.65562096737615</v>
       </c>
       <c r="L8">
-        <v>7.47916109515101</v>
+        <v>6.8524187198701</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.16619705546912</v>
+        <v>18.48291110751344</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.49222466624629</v>
+        <v>20.46874088278416</v>
       </c>
       <c r="C9">
-        <v>14.44380645108846</v>
+        <v>7.326123736290874</v>
       </c>
       <c r="D9">
-        <v>1.953117324539616</v>
+        <v>2.260517890683098</v>
       </c>
       <c r="E9">
-        <v>5.558046009671557</v>
+        <v>6.194565641685831</v>
       </c>
       <c r="F9">
-        <v>46.76660933081385</v>
+        <v>43.62070191825994</v>
       </c>
       <c r="G9">
-        <v>2.117998079864623</v>
+        <v>2.155406891526679</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.789402816003114</v>
+        <v>6.176179243319833</v>
       </c>
       <c r="K9">
-        <v>22.83881523447728</v>
+        <v>16.17782860270854</v>
       </c>
       <c r="L9">
-        <v>7.840843140982363</v>
+        <v>7.083904149365949</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.73236134479435</v>
+        <v>18.22797133445006</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.82375410871679</v>
+        <v>21.91269010303776</v>
       </c>
       <c r="C10">
-        <v>15.8957161405042</v>
+        <v>8.023413440711122</v>
       </c>
       <c r="D10">
-        <v>2.105229535503231</v>
+        <v>2.271519700647175</v>
       </c>
       <c r="E10">
-        <v>5.531268121914476</v>
+        <v>6.239328016658612</v>
       </c>
       <c r="F10">
-        <v>49.10845318611029</v>
+        <v>45.09547385475841</v>
       </c>
       <c r="G10">
-        <v>2.097437741984636</v>
+        <v>2.140280995703297</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.710827090242386</v>
+        <v>6.124889040823199</v>
       </c>
       <c r="K10">
-        <v>24.69732216280682</v>
+        <v>17.26918972820026</v>
       </c>
       <c r="L10">
-        <v>8.124083476205598</v>
+        <v>7.268833981331663</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.43995840022763</v>
+        <v>18.0676245221162</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.86407424714649</v>
+        <v>22.55808694356055</v>
       </c>
       <c r="C11">
-        <v>16.53276802090565</v>
+        <v>8.327580670616204</v>
       </c>
       <c r="D11">
-        <v>2.17532456878053</v>
+        <v>2.275795253989626</v>
       </c>
       <c r="E11">
-        <v>5.520567471416154</v>
+        <v>6.262399791909917</v>
       </c>
       <c r="F11">
-        <v>50.20350228527363</v>
+        <v>45.78969121002179</v>
       </c>
       <c r="G11">
-        <v>2.088125783779703</v>
+        <v>2.133492872344565</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.67620032491045</v>
+        <v>6.103133299329967</v>
       </c>
       <c r="K11">
-        <v>25.52743183010917</v>
+        <v>17.75871236828301</v>
       </c>
       <c r="L11">
-        <v>8.256878802709943</v>
+        <v>7.356204825190798</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.31339267548166</v>
+        <v>18.00114920735744</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.25520916291584</v>
+        <v>22.80076962331808</v>
       </c>
       <c r="C12">
-        <v>16.77085707026738</v>
+        <v>8.440957962801345</v>
       </c>
       <c r="D12">
-        <v>2.20205106102436</v>
+        <v>2.27730486034295</v>
       </c>
       <c r="E12">
-        <v>5.516737071579068</v>
+        <v>6.271537552235321</v>
       </c>
       <c r="F12">
-        <v>50.62269971089918</v>
+        <v>46.05600245240634</v>
       </c>
       <c r="G12">
-        <v>2.08459979885831</v>
+        <v>2.130933157214254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.663243001362939</v>
+        <v>6.095125474130472</v>
       </c>
       <c r="K12">
-        <v>25.84620047371771</v>
+        <v>17.94303060635013</v>
       </c>
       <c r="L12">
-        <v>8.307752296798682</v>
+        <v>7.389759066951745</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.26647191843601</v>
+        <v>17.97696604915647</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.17109369756987</v>
+        <v>22.7485804975717</v>
       </c>
       <c r="C13">
-        <v>16.71971654054407</v>
+        <v>8.416619195405289</v>
       </c>
       <c r="D13">
-        <v>2.196285935785964</v>
+        <v>2.276984681967693</v>
       </c>
       <c r="E13">
-        <v>5.517551999817002</v>
+        <v>6.269551549059603</v>
       </c>
       <c r="F13">
-        <v>50.53221176546967</v>
+        <v>45.99849381850572</v>
       </c>
       <c r="G13">
-        <v>2.085359269888413</v>
+        <v>2.131484000370506</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.666026790588612</v>
+        <v>6.096839778801107</v>
       </c>
       <c r="K13">
-        <v>25.77250757781523</v>
+        <v>17.90338178505041</v>
       </c>
       <c r="L13">
-        <v>8.296769285175271</v>
+        <v>7.382511654860336</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.27653092118225</v>
+        <v>17.98212928705408</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.89630858635969</v>
+        <v>22.57808721185051</v>
       </c>
       <c r="C14">
-        <v>16.55241748547875</v>
+        <v>8.336944024727114</v>
       </c>
       <c r="D14">
-        <v>2.177519363937929</v>
+        <v>2.275921670544599</v>
       </c>
       <c r="E14">
-        <v>5.520247843005928</v>
+        <v>6.26314345684542</v>
       </c>
       <c r="F14">
-        <v>50.23789743706719</v>
+        <v>45.81153164730531</v>
       </c>
       <c r="G14">
-        <v>2.087835728950293</v>
+        <v>2.133282081998353</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.675131244085923</v>
+        <v>6.102469844924724</v>
       </c>
       <c r="K14">
-        <v>25.55316065469409</v>
+        <v>17.77389766136577</v>
       </c>
       <c r="L14">
-        <v>8.261052295532824</v>
+        <v>7.358955938013597</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.30951178370893</v>
+        <v>17.99913944463063</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.72763323488165</v>
+        <v>22.47343047345734</v>
       </c>
       <c r="C15">
-        <v>16.44953898145766</v>
+        <v>8.287907902335006</v>
       </c>
       <c r="D15">
-        <v>2.166049886793768</v>
+        <v>2.275256153021993</v>
       </c>
       <c r="E15">
-        <v>5.521928284114627</v>
+        <v>6.259270885305767</v>
       </c>
       <c r="F15">
-        <v>50.05821983923453</v>
+        <v>45.69746057781936</v>
       </c>
       <c r="G15">
-        <v>2.089352483619404</v>
+        <v>2.134384785933202</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.680728005221291</v>
+        <v>6.105948578827384</v>
       </c>
       <c r="K15">
-        <v>25.41853241585411</v>
+        <v>17.69444659105178</v>
       </c>
       <c r="L15">
-        <v>8.239251737500313</v>
+        <v>7.344588530078572</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.32984727747549</v>
+        <v>18.00968942205617</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.75536549844273</v>
+        <v>21.87027465034071</v>
       </c>
       <c r="C16">
-        <v>15.85363002893893</v>
+        <v>8.003278968390442</v>
       </c>
       <c r="D16">
-        <v>2.100671135790006</v>
+        <v>2.27122521956002</v>
       </c>
       <c r="E16">
-        <v>5.531997946761225</v>
+        <v>6.237875696555728</v>
       </c>
       <c r="F16">
-        <v>49.03750684599588</v>
+        <v>45.05058024435173</v>
       </c>
       <c r="G16">
-        <v>2.09804666024442</v>
+        <v>2.14072627033349</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.713112050106012</v>
+        <v>6.126342874841082</v>
       </c>
       <c r="K16">
-        <v>24.64276995306947</v>
+        <v>17.23705318870054</v>
       </c>
       <c r="L16">
-        <v>8.115485873132421</v>
+        <v>7.263189533527702</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.4483659937866</v>
+        <v>18.07210391675367</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.15376089304772</v>
+        <v>21.49726238654141</v>
       </c>
       <c r="C17">
-        <v>15.48220627195886</v>
+        <v>7.825377993684233</v>
       </c>
       <c r="D17">
-        <v>2.060829015743349</v>
+        <v>2.26856237097225</v>
       </c>
       <c r="E17">
-        <v>5.538560391495551</v>
+        <v>6.225452227435952</v>
       </c>
       <c r="F17">
-        <v>48.41909860012277</v>
+        <v>44.65976074199034</v>
       </c>
       <c r="G17">
-        <v>2.103386978759475</v>
+        <v>2.14463858735253</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.733261014334936</v>
+        <v>6.139260507961573</v>
       </c>
       <c r="K17">
-        <v>24.16297852132803</v>
+        <v>16.95463040750789</v>
       </c>
       <c r="L17">
-        <v>8.04058169534634</v>
+        <v>7.214086022167053</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.52277708343607</v>
+        <v>18.11208987325779</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.80581110110788</v>
+        <v>21.28163816960824</v>
       </c>
       <c r="C18">
-        <v>15.26635308435408</v>
+        <v>7.721822753952634</v>
       </c>
       <c r="D18">
-        <v>2.037993723428416</v>
+        <v>2.266962414181002</v>
       </c>
       <c r="E18">
-        <v>5.542473703512138</v>
+        <v>6.218560856573598</v>
       </c>
       <c r="F18">
-        <v>48.06618525047725</v>
+        <v>44.43716290417144</v>
       </c>
       <c r="G18">
-        <v>2.106462831218399</v>
+        <v>2.146897741557604</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.744955734845501</v>
+        <v>6.146838507570961</v>
       </c>
       <c r="K18">
-        <v>23.88556237503251</v>
+        <v>16.79153619968097</v>
       </c>
       <c r="L18">
-        <v>7.997868797847825</v>
+        <v>7.186148225276108</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.56617785495865</v>
+        <v>18.13569350362435</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.68766911389147</v>
+        <v>21.20844913229267</v>
       </c>
       <c r="C19">
-        <v>15.19288135610181</v>
+        <v>7.686547221698767</v>
       </c>
       <c r="D19">
-        <v>2.030274474792533</v>
+        <v>2.266409093943343</v>
       </c>
       <c r="E19">
-        <v>5.543822273949726</v>
+        <v>6.216270892885194</v>
       </c>
       <c r="F19">
-        <v>47.94716589378922</v>
+        <v>44.36216963371729</v>
       </c>
       <c r="G19">
-        <v>2.1075051508169</v>
+        <v>2.147664252977654</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.748933662521602</v>
+        <v>6.149429616237171</v>
       </c>
       <c r="K19">
-        <v>23.79138293698063</v>
+        <v>16.73620546333259</v>
       </c>
       <c r="L19">
-        <v>7.983470044910118</v>
+        <v>7.176741359103868</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.58097374404687</v>
+        <v>18.14378745162096</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.2180012079994</v>
+        <v>21.53708229469727</v>
       </c>
       <c r="C20">
-        <v>15.52197322909709</v>
+        <v>7.844442804788203</v>
       </c>
       <c r="D20">
-        <v>2.065061549366912</v>
+        <v>2.268852943283905</v>
       </c>
       <c r="E20">
-        <v>5.537847387397886</v>
+        <v>6.226748329459779</v>
       </c>
       <c r="F20">
-        <v>48.48464009534637</v>
+        <v>44.70113692139226</v>
       </c>
       <c r="G20">
-        <v>2.10281809220299</v>
+        <v>2.144221211716651</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.731105236120924</v>
+        <v>6.137870047357944</v>
       </c>
       <c r="K20">
-        <v>24.21420307584707</v>
+        <v>16.98476277581514</v>
       </c>
       <c r="L20">
-        <v>8.048516967171375</v>
+        <v>7.219281573954239</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.51479311889785</v>
+        <v>18.1077702991518</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.97709466713597</v>
+        <v>22.62821211044531</v>
       </c>
       <c r="C21">
-        <v>16.60164082242478</v>
+        <v>8.360394930788088</v>
       </c>
       <c r="D21">
-        <v>2.183026118708936</v>
+        <v>2.276236910481975</v>
       </c>
       <c r="E21">
-        <v>5.519449913832747</v>
+        <v>6.265014691945474</v>
       </c>
       <c r="F21">
-        <v>50.32421939867241</v>
+        <v>45.86635331100972</v>
       </c>
       <c r="G21">
-        <v>2.087108374931091</v>
+        <v>2.132753670167506</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.672452883907103</v>
+        <v>6.10080986588358</v>
       </c>
       <c r="K21">
-        <v>25.61764457592593</v>
+        <v>17.81195916667986</v>
       </c>
       <c r="L21">
-        <v>8.27152712097368</v>
+        <v>7.36586207295296</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.29979646391125</v>
+        <v>17.99411578128555</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.11048554515078</v>
+        <v>23.33132786770638</v>
       </c>
       <c r="C22">
-        <v>17.28903789434304</v>
+        <v>8.68712023700696</v>
       </c>
       <c r="D22">
-        <v>2.261221547157462</v>
+        <v>2.280422564679546</v>
       </c>
       <c r="E22">
-        <v>5.508723622150637</v>
+        <v>6.292367029820617</v>
       </c>
       <c r="F22">
-        <v>51.55305832258242</v>
+        <v>46.64790992460583</v>
       </c>
       <c r="G22">
-        <v>2.076839428039655</v>
+        <v>2.125320556760894</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.63502113424618</v>
+        <v>6.077935206417007</v>
       </c>
       <c r="K22">
-        <v>26.62593949581911</v>
+        <v>18.34643545740225</v>
       </c>
       <c r="L22">
-        <v>8.420712832556223</v>
+        <v>7.464396000677582</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.16520194602633</v>
+        <v>17.92563704204018</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.50700530312195</v>
+        <v>22.95698889644511</v>
       </c>
       <c r="C23">
-        <v>16.9237481474216</v>
+        <v>8.513674815524205</v>
       </c>
       <c r="D23">
-        <v>2.2193663561689</v>
+        <v>2.278248729362912</v>
       </c>
       <c r="E23">
-        <v>5.514326400202889</v>
+        <v>6.277550219105593</v>
       </c>
       <c r="F23">
-        <v>50.89466528321523</v>
+        <v>46.22891723024093</v>
       </c>
       <c r="G23">
-        <v>2.082322392460334</v>
+        <v>2.129283017965022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.654918719766242</v>
+        <v>6.090019228628338</v>
       </c>
       <c r="K23">
-        <v>26.07621613691484</v>
+        <v>18.0617481171908</v>
       </c>
       <c r="L23">
-        <v>8.340766594280389</v>
+        <v>7.411555065181514</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.23646546142687</v>
+        <v>17.96163305361157</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.18896464523554</v>
+        <v>21.51908336698927</v>
       </c>
       <c r="C24">
-        <v>15.50400182009321</v>
+        <v>7.835827588332403</v>
       </c>
       <c r="D24">
-        <v>2.063147805342716</v>
+        <v>2.26872179027117</v>
       </c>
       <c r="E24">
-        <v>5.538169299640018</v>
+        <v>6.226161580632214</v>
       </c>
       <c r="F24">
-        <v>48.45500064921616</v>
+        <v>44.6824242473661</v>
       </c>
       <c r="G24">
-        <v>2.103075267856352</v>
+        <v>2.144409876182875</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.732079517876577</v>
+        <v>6.13849820305963</v>
       </c>
       <c r="K24">
-        <v>24.19104937459497</v>
+        <v>16.97114218762051</v>
       </c>
       <c r="L24">
-        <v>8.044928340330911</v>
+        <v>7.216931754154341</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.51840074128864</v>
+        <v>18.10972126690667</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.61535914048778</v>
+        <v>19.92749218153579</v>
       </c>
       <c r="C25">
-        <v>13.88703760965723</v>
+        <v>7.057351348735033</v>
       </c>
       <c r="D25">
-        <v>1.897586053354052</v>
+        <v>2.255849648284434</v>
       </c>
       <c r="E25">
-        <v>5.56916961868499</v>
+        <v>6.180410899852822</v>
       </c>
       <c r="F25">
-        <v>45.92934731022785</v>
+        <v>43.09792406729363</v>
       </c>
       <c r="G25">
-        <v>2.125639724347965</v>
+        <v>2.16107493570699</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.819365405920297</v>
+        <v>6.196441814842714</v>
       </c>
       <c r="K25">
-        <v>22.14059801712952</v>
+        <v>15.77029964119826</v>
       </c>
       <c r="L25">
-        <v>7.739951700094437</v>
+        <v>7.018673717657325</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.84531339425136</v>
+        <v>18.29239590399418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.72501003996804</v>
+        <v>14.61278297977651</v>
       </c>
       <c r="C2">
-        <v>6.441079453248381</v>
+        <v>6.623050489589575</v>
       </c>
       <c r="D2">
-        <v>2.24430255518289</v>
+        <v>4.433084752472754</v>
       </c>
       <c r="E2">
-        <v>6.154642932571773</v>
+        <v>7.110815386951148</v>
       </c>
       <c r="F2">
-        <v>42.00108698463306</v>
+        <v>27.99544683992965</v>
       </c>
       <c r="G2">
-        <v>2.173729832267525</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>35.31666561384203</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.070821877242667</v>
       </c>
       <c r="J2">
-        <v>6.243851074424386</v>
+        <v>12.21645576110044</v>
       </c>
       <c r="K2">
-        <v>14.86849763204637</v>
+        <v>19.65327322332687</v>
       </c>
       <c r="L2">
-        <v>6.882686076048768</v>
+        <v>5.796650060769306</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.60824447087714</v>
       </c>
       <c r="N2">
-        <v>18.44476714647672</v>
+        <v>7.061508206620454</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>14.32830284932267</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.89444535233694</v>
+        <v>13.77786089484106</v>
       </c>
       <c r="C3">
-        <v>5.995482472337852</v>
+        <v>6.240024771071821</v>
       </c>
       <c r="D3">
-        <v>2.235266315762143</v>
+        <v>4.293782082063956</v>
       </c>
       <c r="E3">
-        <v>6.141924135259051</v>
+        <v>7.060077662034788</v>
       </c>
       <c r="F3">
-        <v>41.3005139422235</v>
+        <v>27.68719590959899</v>
       </c>
       <c r="G3">
-        <v>2.182583613578977</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>34.83580977658704</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.27472957476692</v>
       </c>
       <c r="J3">
-        <v>6.278893815672094</v>
+        <v>12.21451260831615</v>
       </c>
       <c r="K3">
-        <v>14.24899787569244</v>
+        <v>19.63923882735682</v>
       </c>
       <c r="L3">
-        <v>6.7967505757672</v>
+        <v>5.819176155358464</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.97814884911802</v>
       </c>
       <c r="N3">
-        <v>18.55838831239637</v>
+        <v>6.947440752634601</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>14.50124634796713</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.37832198291834</v>
+        <v>13.23973044210936</v>
       </c>
       <c r="C4">
-        <v>5.707781047210386</v>
+        <v>5.995735838618494</v>
       </c>
       <c r="D4">
-        <v>2.229147249045177</v>
+        <v>4.207943771159191</v>
       </c>
       <c r="E4">
-        <v>6.136392054809489</v>
+        <v>7.030641894867595</v>
       </c>
       <c r="F4">
-        <v>40.89121131365167</v>
+        <v>27.50809244096153</v>
       </c>
       <c r="G4">
-        <v>2.188167968013204</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>34.55347348518134</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.405073164001306</v>
       </c>
       <c r="J4">
-        <v>6.301833782436759</v>
+        <v>12.21745316873926</v>
       </c>
       <c r="K4">
-        <v>13.86567868977122</v>
+        <v>19.6363597500121</v>
       </c>
       <c r="L4">
-        <v>6.747053866907457</v>
+        <v>5.833698044379341</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.57534829676204</v>
       </c>
       <c r="N4">
-        <v>18.6330335288258</v>
+        <v>6.880318682505628</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>14.60929029025139</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.16672991575691</v>
+        <v>13.00895974423658</v>
       </c>
       <c r="C5">
-        <v>5.586950578324521</v>
+        <v>5.899383655789973</v>
       </c>
       <c r="D5">
-        <v>2.226514079637667</v>
+        <v>4.174212344091901</v>
       </c>
       <c r="E5">
-        <v>6.134701233277573</v>
+        <v>7.018584253613136</v>
       </c>
       <c r="F5">
-        <v>40.72962525882057</v>
+        <v>27.42948887080071</v>
       </c>
       <c r="G5">
-        <v>2.190482420896837</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>34.42745960013869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.461948560864725</v>
       </c>
       <c r="J5">
-        <v>6.311538176785469</v>
+        <v>12.21711605997112</v>
       </c>
       <c r="K5">
-        <v>13.70893976859075</v>
+        <v>19.630568747122</v>
       </c>
       <c r="L5">
-        <v>6.727573095975835</v>
+        <v>5.839402751252133</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.40635077163864</v>
       </c>
       <c r="N5">
-        <v>18.66464858513643</v>
+        <v>6.854959390860907</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>14.65268706399985</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.13152760318901</v>
+        <v>12.96386318363401</v>
       </c>
       <c r="C6">
-        <v>5.56666874341813</v>
+        <v>5.889953351533272</v>
       </c>
       <c r="D6">
-        <v>2.226068527115684</v>
+        <v>4.170167997980244</v>
       </c>
       <c r="E6">
-        <v>6.134454244382629</v>
+        <v>7.015998218412374</v>
       </c>
       <c r="F6">
-        <v>40.70310740578272</v>
+        <v>27.40659144077151</v>
       </c>
       <c r="G6">
-        <v>2.190869119809165</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>34.38933549992853</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.474591307352747</v>
       </c>
       <c r="J6">
-        <v>6.31317104723659</v>
+        <v>12.2140022433017</v>
       </c>
       <c r="K6">
-        <v>13.68288774138501</v>
+        <v>19.62232522887064</v>
       </c>
       <c r="L6">
-        <v>6.724384865162469</v>
+        <v>5.839886627248243</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.37681979473576</v>
       </c>
       <c r="N6">
-        <v>18.66996965636351</v>
+        <v>6.852310617407989</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>14.65856352579119</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.37547311194791</v>
+        <v>13.21949047268105</v>
       </c>
       <c r="C7">
-        <v>5.706166075593109</v>
+        <v>6.01238963299044</v>
       </c>
       <c r="D7">
-        <v>2.229112297254879</v>
+        <v>4.21168847249945</v>
       </c>
       <c r="E7">
-        <v>6.136366982031221</v>
+        <v>7.028812872965655</v>
       </c>
       <c r="F7">
-        <v>40.88901107174291</v>
+        <v>27.47981782880873</v>
       </c>
       <c r="G7">
-        <v>2.188199022528547</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>34.50446058314435</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.414108589384229</v>
       </c>
       <c r="J7">
-        <v>6.301963219384145</v>
+        <v>12.20894203248236</v>
       </c>
       <c r="K7">
-        <v>13.86356672016904</v>
+        <v>19.61618446810282</v>
       </c>
       <c r="L7">
-        <v>6.74678802179443</v>
+        <v>5.832485400629714</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.56974154495489</v>
       </c>
       <c r="N7">
-        <v>18.6334550946815</v>
+        <v>6.884085859069764</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>14.60620840835448</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.44006372477409</v>
+        <v>14.30905791982724</v>
       </c>
       <c r="C8">
-        <v>6.290337551695332</v>
+        <v>6.515058020340467</v>
       </c>
       <c r="D8">
-        <v>2.241307688891585</v>
+        <v>4.390471466575685</v>
       </c>
       <c r="E8">
-        <v>6.149779341714303</v>
+        <v>7.090776276225781</v>
       </c>
       <c r="F8">
-        <v>41.75518179775302</v>
+        <v>27.85160220496666</v>
       </c>
       <c r="G8">
-        <v>2.176752837958443</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>35.08671715933272</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.150615113886659</v>
       </c>
       <c r="J8">
-        <v>6.255637201877158</v>
+        <v>12.20373189030398</v>
       </c>
       <c r="K8">
-        <v>14.65562096737615</v>
+        <v>19.62078403564528</v>
       </c>
       <c r="L8">
-        <v>6.8524187198701</v>
+        <v>5.802591599750286</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.39018376750284</v>
       </c>
       <c r="N8">
-        <v>18.48291110751344</v>
+        <v>7.026898206359392</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>14.38291430231706</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.46874088278416</v>
+        <v>16.26579216224609</v>
       </c>
       <c r="C9">
-        <v>7.326123736290874</v>
+        <v>7.399279612193184</v>
       </c>
       <c r="D9">
-        <v>2.260517890683098</v>
+        <v>4.729387573311506</v>
       </c>
       <c r="E9">
-        <v>6.194565641685831</v>
+        <v>7.228656657136656</v>
       </c>
       <c r="F9">
-        <v>43.62070191825994</v>
+        <v>28.70880011987187</v>
       </c>
       <c r="G9">
-        <v>2.155406891526679</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>36.41265979607071</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.660333112394987</v>
       </c>
       <c r="J9">
-        <v>6.176179243319833</v>
+        <v>12.24256151296257</v>
       </c>
       <c r="K9">
-        <v>16.17782860270854</v>
+        <v>19.71269588003353</v>
       </c>
       <c r="L9">
-        <v>7.083904149365949</v>
+        <v>5.751676698310325</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.9106035458748</v>
       </c>
       <c r="N9">
-        <v>18.22797133445006</v>
+        <v>7.321930139079252</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.96515661450289</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.91269010303776</v>
+        <v>17.56436937145476</v>
       </c>
       <c r="C10">
-        <v>8.023413440711122</v>
+        <v>8.012388503077315</v>
       </c>
       <c r="D10">
-        <v>2.271519700647175</v>
+        <v>4.974793639252716</v>
       </c>
       <c r="E10">
-        <v>6.239328016658612</v>
+        <v>7.337007021704806</v>
       </c>
       <c r="F10">
-        <v>45.09547385475841</v>
+        <v>29.37424685930983</v>
       </c>
       <c r="G10">
-        <v>2.140280995703297</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.42496604939098</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.328476498792866</v>
       </c>
       <c r="J10">
-        <v>6.124889040823199</v>
+        <v>12.28927401840423</v>
       </c>
       <c r="K10">
-        <v>17.26918972820026</v>
+        <v>19.80155468194772</v>
       </c>
       <c r="L10">
-        <v>7.268833981331663</v>
+        <v>5.716920835021322</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.06345400453138</v>
       </c>
       <c r="N10">
-        <v>18.0676245221162</v>
+        <v>7.552621600456012</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.66399398915991</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.55808694356055</v>
+        <v>18.10485343773975</v>
       </c>
       <c r="C11">
-        <v>8.327580670616204</v>
+        <v>8.303761731623226</v>
       </c>
       <c r="D11">
-        <v>2.275795253989626</v>
+        <v>5.090373621892094</v>
       </c>
       <c r="E11">
-        <v>6.262399791909917</v>
+        <v>7.385300484847818</v>
       </c>
       <c r="F11">
-        <v>45.78969121002179</v>
+        <v>29.64657199723969</v>
       </c>
       <c r="G11">
-        <v>2.133492872344565</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>37.82839511050163</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.197877784385407</v>
       </c>
       <c r="J11">
-        <v>6.103133299329967</v>
+        <v>12.30227082420771</v>
       </c>
       <c r="K11">
-        <v>17.75871236828301</v>
+        <v>19.8174333836474</v>
       </c>
       <c r="L11">
-        <v>7.356204825190798</v>
+        <v>5.699793931788088</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.55511950307383</v>
       </c>
       <c r="N11">
-        <v>18.00114920735744</v>
+        <v>7.665802094795958</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>13.523241826495</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.80076962331808</v>
+        <v>18.31687730853687</v>
       </c>
       <c r="C12">
-        <v>8.440957962801345</v>
+        <v>8.400682563519499</v>
       </c>
       <c r="D12">
-        <v>2.27730486034295</v>
+        <v>5.130807668898722</v>
       </c>
       <c r="E12">
-        <v>6.271537552235321</v>
+        <v>7.405222918392234</v>
       </c>
       <c r="F12">
-        <v>46.05600245240634</v>
+        <v>29.77315120202502</v>
       </c>
       <c r="G12">
-        <v>2.130933157214254</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.02067875671028</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.141406659308334</v>
       </c>
       <c r="J12">
-        <v>6.095125474130472</v>
+        <v>12.31515992953006</v>
       </c>
       <c r="K12">
-        <v>17.94303060635013</v>
+        <v>19.84153503649343</v>
       </c>
       <c r="L12">
-        <v>7.389759066951745</v>
+        <v>5.694483605194607</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.73984042055108</v>
       </c>
       <c r="N12">
-        <v>17.97696604915647</v>
+        <v>7.705754203095527</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.47286236975655</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.7485804975717</v>
+        <v>18.27367227765296</v>
       </c>
       <c r="C13">
-        <v>8.416619195405289</v>
+        <v>8.377504209912553</v>
       </c>
       <c r="D13">
-        <v>2.276984681967693</v>
+        <v>5.121509326590036</v>
       </c>
       <c r="E13">
-        <v>6.269551549059603</v>
+        <v>7.401203930329782</v>
       </c>
       <c r="F13">
-        <v>45.99849381850572</v>
+        <v>29.75019811911657</v>
       </c>
       <c r="G13">
-        <v>2.131484000370506</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>37.98667798880611</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.15186415864594</v>
       </c>
       <c r="J13">
-        <v>6.096839778801107</v>
+        <v>12.313789455238</v>
       </c>
       <c r="K13">
-        <v>17.90338178505041</v>
+        <v>19.83970042496185</v>
       </c>
       <c r="L13">
-        <v>7.382511654860336</v>
+        <v>5.69583861962713</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.70073292119688</v>
       </c>
       <c r="N13">
-        <v>17.98212928705408</v>
+        <v>7.696499633156022</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>13.4842509121454</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.57808721185051</v>
+        <v>18.12335286986057</v>
       </c>
       <c r="C14">
-        <v>8.336944024727114</v>
+        <v>8.310750141997767</v>
       </c>
       <c r="D14">
-        <v>2.275921670544599</v>
+        <v>5.09344822220145</v>
       </c>
       <c r="E14">
-        <v>6.26314345684542</v>
+        <v>7.387054825547244</v>
       </c>
       <c r="F14">
-        <v>45.81153164730531</v>
+        <v>29.65881968420402</v>
       </c>
       <c r="G14">
-        <v>2.133282081998353</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>37.8473717279206</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.192505188800772</v>
       </c>
       <c r="J14">
-        <v>6.102469844924724</v>
+        <v>12.30392805618518</v>
       </c>
       <c r="K14">
-        <v>17.77389766136577</v>
+        <v>19.8208422448001</v>
       </c>
       <c r="L14">
-        <v>7.358955938013597</v>
+        <v>5.699446771178627</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.57060969961885</v>
       </c>
       <c r="N14">
-        <v>17.99913944463063</v>
+        <v>7.66881128361288</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>13.51932612406623</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.47343047345734</v>
+        <v>18.02619208019506</v>
       </c>
       <c r="C15">
-        <v>8.287907902335006</v>
+        <v>8.274415352513229</v>
       </c>
       <c r="D15">
-        <v>2.275256153021993</v>
+        <v>5.077424446950209</v>
       </c>
       <c r="E15">
-        <v>6.259270885305767</v>
+        <v>7.377861282849494</v>
       </c>
       <c r="F15">
-        <v>45.69746057781936</v>
+        <v>29.59437713064987</v>
       </c>
       <c r="G15">
-        <v>2.134384785933202</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>37.74742450248281</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.220836045202657</v>
       </c>
       <c r="J15">
-        <v>6.105948578827384</v>
+        <v>12.29514752215821</v>
       </c>
       <c r="K15">
-        <v>17.69444659105178</v>
+        <v>19.80271605344512</v>
       </c>
       <c r="L15">
-        <v>7.344588530078572</v>
+        <v>5.701244470600673</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.48939061450823</v>
       </c>
       <c r="N15">
-        <v>18.00968942205617</v>
+        <v>7.653155060800517</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>13.53975359354471</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.87027465034071</v>
+        <v>17.48946316383043</v>
       </c>
       <c r="C16">
-        <v>8.003278968390442</v>
+        <v>8.033823194630568</v>
       </c>
       <c r="D16">
-        <v>2.27122521956002</v>
+        <v>4.977486840273841</v>
       </c>
       <c r="E16">
-        <v>6.237875696555728</v>
+        <v>7.329179517866935</v>
       </c>
       <c r="F16">
-        <v>45.05058024435173</v>
+        <v>29.28306321661156</v>
       </c>
       <c r="G16">
-        <v>2.14072627033349</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.27250062647666</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.363560323206136</v>
       </c>
       <c r="J16">
-        <v>6.126342874841082</v>
+        <v>12.26450266187904</v>
       </c>
       <c r="K16">
-        <v>17.23705318870054</v>
+        <v>19.74385658718496</v>
       </c>
       <c r="L16">
-        <v>7.263189533527702</v>
+        <v>5.71446007088818</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.02220271667728</v>
       </c>
       <c r="N16">
-        <v>18.07210391675367</v>
+        <v>7.556040556160588</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>13.66401497776517</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.49726238654141</v>
+        <v>17.15264732135925</v>
       </c>
       <c r="C17">
-        <v>7.825377993684233</v>
+        <v>7.883876448503618</v>
       </c>
       <c r="D17">
-        <v>2.26856237097225</v>
+        <v>4.915724856519792</v>
       </c>
       <c r="E17">
-        <v>6.225452227435952</v>
+        <v>7.299745384911947</v>
       </c>
       <c r="F17">
-        <v>44.65976074199034</v>
+        <v>29.09492474631868</v>
       </c>
       <c r="G17">
-        <v>2.14463858735253</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.98467923935868</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.452452760224231</v>
       </c>
       <c r="J17">
-        <v>6.139260507961573</v>
+        <v>12.24714780769893</v>
       </c>
       <c r="K17">
-        <v>16.95463040750789</v>
+        <v>19.70985940639918</v>
       </c>
       <c r="L17">
-        <v>7.214086022167053</v>
+        <v>5.722759391469101</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.72840746610963</v>
       </c>
       <c r="N17">
-        <v>18.11208987325779</v>
+        <v>7.49701673588366</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.74059287956377</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.28163816960824</v>
+        <v>16.96829827251413</v>
       </c>
       <c r="C18">
-        <v>7.721822753952634</v>
+        <v>7.784064975356848</v>
       </c>
       <c r="D18">
-        <v>2.266962414181002</v>
+        <v>4.876861905002769</v>
       </c>
       <c r="E18">
-        <v>6.218560856573598</v>
+        <v>7.284407860363003</v>
       </c>
       <c r="F18">
-        <v>44.43716290417144</v>
+        <v>29.01027660400666</v>
       </c>
       <c r="G18">
-        <v>2.146897741557604</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>36.85916393355345</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.495444510937251</v>
       </c>
       <c r="J18">
-        <v>6.146838507570961</v>
+        <v>12.24498583587552</v>
       </c>
       <c r="K18">
-        <v>16.79153619968097</v>
+        <v>19.7083121213452</v>
       </c>
       <c r="L18">
-        <v>7.186148225276108</v>
+        <v>5.72869417537246</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.55943064465933</v>
       </c>
       <c r="N18">
-        <v>18.13569350362435</v>
+        <v>7.4599673204059</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.78757434586664</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.20844913229267</v>
+        <v>16.89606185983201</v>
       </c>
       <c r="C19">
-        <v>7.686547221698767</v>
+        <v>7.759890585135139</v>
       </c>
       <c r="D19">
-        <v>2.266409093943343</v>
+        <v>4.866129144731969</v>
       </c>
       <c r="E19">
-        <v>6.216270892885194</v>
+        <v>7.278138735457057</v>
       </c>
       <c r="F19">
-        <v>44.36216963371729</v>
+        <v>28.96444724480354</v>
       </c>
       <c r="G19">
-        <v>2.147664252977654</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>36.78705613575568</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.516681657973963</v>
       </c>
       <c r="J19">
-        <v>6.149429616237171</v>
+        <v>12.23871378452063</v>
       </c>
       <c r="K19">
-        <v>16.73620546333259</v>
+        <v>19.69461765974989</v>
       </c>
       <c r="L19">
-        <v>7.176741359103868</v>
+        <v>5.729874624961652</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.49971036213088</v>
       </c>
       <c r="N19">
-        <v>18.14378745162096</v>
+        <v>7.450011323052284</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.80134444110591</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53708229469727</v>
+        <v>17.18973073364019</v>
       </c>
       <c r="C20">
-        <v>7.844442804788203</v>
+        <v>7.898943064090497</v>
       </c>
       <c r="D20">
-        <v>2.268852943283905</v>
+        <v>4.922068166259774</v>
       </c>
       <c r="E20">
-        <v>6.226748329459779</v>
+        <v>7.302974315321436</v>
       </c>
       <c r="F20">
-        <v>44.70113692139226</v>
+        <v>29.11660324187628</v>
       </c>
       <c r="G20">
-        <v>2.144221211716651</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>37.01820691388675</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.442251021623389</v>
       </c>
       <c r="J20">
-        <v>6.137870047357944</v>
+        <v>12.24951307836482</v>
       </c>
       <c r="K20">
-        <v>16.98476277581514</v>
+        <v>19.71475069511068</v>
       </c>
       <c r="L20">
-        <v>7.219281573954239</v>
+        <v>5.721954080487972</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.76016379968442</v>
       </c>
       <c r="N20">
-        <v>18.1077702991518</v>
+        <v>7.503019796931</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.73264584960107</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.62821211044531</v>
+        <v>18.1548488052402</v>
       </c>
       <c r="C21">
-        <v>8.360394930788088</v>
+        <v>8.343705843079011</v>
       </c>
       <c r="D21">
-        <v>2.276236910481975</v>
+        <v>5.105088659918373</v>
       </c>
       <c r="E21">
-        <v>6.265014691945474</v>
+        <v>7.389623261512851</v>
       </c>
       <c r="F21">
-        <v>45.86635331100972</v>
+        <v>29.66105557907389</v>
       </c>
       <c r="G21">
-        <v>2.132753670167506</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>37.84616023642715</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.190156875658965</v>
       </c>
       <c r="J21">
-        <v>6.10080986588358</v>
+        <v>12.29872046745888</v>
       </c>
       <c r="K21">
-        <v>17.81195916667986</v>
+        <v>19.80724755019683</v>
       </c>
       <c r="L21">
-        <v>7.36586207295296</v>
+        <v>5.697174085619677</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.60613651095629</v>
       </c>
       <c r="N21">
-        <v>17.99411578128555</v>
+        <v>7.680516303690144</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.50596211290375</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.33132786770638</v>
+        <v>18.77700861131768</v>
       </c>
       <c r="C22">
-        <v>8.68712023700696</v>
+        <v>8.609868537794995</v>
       </c>
       <c r="D22">
-        <v>2.280422564679546</v>
+        <v>5.218791139910189</v>
       </c>
       <c r="E22">
-        <v>6.292367029820617</v>
+        <v>7.449642203891742</v>
       </c>
       <c r="F22">
-        <v>46.64790992460583</v>
+        <v>30.05726384448592</v>
       </c>
       <c r="G22">
-        <v>2.125320556760894</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>38.45201935221207</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.017399580762355</v>
       </c>
       <c r="J22">
-        <v>6.077935206417007</v>
+        <v>12.34599076814913</v>
       </c>
       <c r="K22">
-        <v>18.34643545740225</v>
+        <v>19.89903584175924</v>
       </c>
       <c r="L22">
-        <v>7.464396000677582</v>
+        <v>5.683142883117648</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.13923239748701</v>
       </c>
       <c r="N22">
-        <v>17.92563704204018</v>
+        <v>7.793689873429198</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>13.36274321611704</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.95698889644511</v>
+        <v>18.46248395080163</v>
       </c>
       <c r="C23">
-        <v>8.513674815524205</v>
+        <v>8.452615920877887</v>
       </c>
       <c r="D23">
-        <v>2.278248729362912</v>
+        <v>5.15420648831808</v>
       </c>
       <c r="E23">
-        <v>6.277550219105593</v>
+        <v>7.419387248089904</v>
       </c>
       <c r="F23">
-        <v>46.22891723024093</v>
+        <v>29.87446566020369</v>
       </c>
       <c r="G23">
-        <v>2.129283017965022</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.17814332572234</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.097919490736937</v>
       </c>
       <c r="J23">
-        <v>6.090019228628338</v>
+        <v>12.3300382010463</v>
       </c>
       <c r="K23">
-        <v>18.0617481171908</v>
+        <v>19.87238579770066</v>
       </c>
       <c r="L23">
-        <v>7.411555065181514</v>
+        <v>5.692032140348857</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.86017914267274</v>
       </c>
       <c r="N23">
-        <v>17.96163305361157</v>
+        <v>7.728845256289335</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.44277386156506</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51908336698927</v>
+        <v>17.19839749248515</v>
       </c>
       <c r="C24">
-        <v>7.835827588332403</v>
+        <v>7.865582042338066</v>
       </c>
       <c r="D24">
-        <v>2.26872179027117</v>
+        <v>4.912520528636224</v>
       </c>
       <c r="E24">
-        <v>6.226161580632214</v>
+        <v>7.304538091366992</v>
       </c>
       <c r="F24">
-        <v>44.6824242473661</v>
+        <v>29.15426359715478</v>
       </c>
       <c r="G24">
-        <v>2.144409876182875</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>37.08462699812233</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.429291036058446</v>
       </c>
       <c r="J24">
-        <v>6.13849820305963</v>
+        <v>12.26387303766378</v>
       </c>
       <c r="K24">
-        <v>16.97114218762051</v>
+        <v>19.74900800092605</v>
       </c>
       <c r="L24">
-        <v>7.216931754154341</v>
+        <v>5.724624473612717</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.75139289641354</v>
       </c>
       <c r="N24">
-        <v>18.10972126690667</v>
+        <v>7.49333740644648</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.74215996802198</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.92749218153579</v>
+        <v>15.73281129465184</v>
       </c>
       <c r="C25">
-        <v>7.057351348735033</v>
+        <v>7.195533011025367</v>
       </c>
       <c r="D25">
-        <v>2.255849648284434</v>
+        <v>4.645324553478403</v>
       </c>
       <c r="E25">
-        <v>6.180410899852822</v>
+        <v>7.186984500824551</v>
       </c>
       <c r="F25">
-        <v>43.09792406729363</v>
+        <v>28.4210793465721</v>
       </c>
       <c r="G25">
-        <v>2.16107493570699</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>35.96165656734852</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.803904593275487</v>
       </c>
       <c r="J25">
-        <v>6.196441814842714</v>
+        <v>12.21312414665115</v>
       </c>
       <c r="K25">
-        <v>15.77029964119826</v>
+        <v>19.6467591130062</v>
       </c>
       <c r="L25">
-        <v>7.018673717657325</v>
+        <v>5.762608747716238</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.48104193255598</v>
       </c>
       <c r="N25">
-        <v>18.29239590399418</v>
+        <v>7.246898016857594</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.07078754465026</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.61278297977651</v>
+        <v>14.03170781833066</v>
       </c>
       <c r="C2">
-        <v>6.623050489589575</v>
+        <v>6.828187691949901</v>
       </c>
       <c r="D2">
-        <v>4.433084752472754</v>
+        <v>4.585951563299274</v>
       </c>
       <c r="E2">
-        <v>7.110815386951148</v>
+        <v>6.97920085522012</v>
       </c>
       <c r="F2">
-        <v>27.99544683992965</v>
+        <v>26.72336016860773</v>
       </c>
       <c r="G2">
-        <v>35.31666561384203</v>
+        <v>33.12863556525593</v>
       </c>
       <c r="I2">
-        <v>4.070821877242667</v>
+        <v>3.816961187940242</v>
       </c>
       <c r="J2">
-        <v>12.21645576110044</v>
+        <v>11.80227155677025</v>
       </c>
       <c r="K2">
-        <v>19.65327322332687</v>
+        <v>18.50662232564478</v>
       </c>
       <c r="L2">
-        <v>5.796650060769306</v>
+        <v>14.51939228444373</v>
       </c>
       <c r="M2">
-        <v>11.60824447087714</v>
+        <v>12.88303749059745</v>
       </c>
       <c r="N2">
-        <v>7.061508206620454</v>
+        <v>5.65474259495688</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.47540899358856</v>
       </c>
       <c r="P2">
-        <v>14.32830284932267</v>
+        <v>7.250912533047246</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.97598339847061</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.77786089484106</v>
+        <v>13.22809235414353</v>
       </c>
       <c r="C3">
-        <v>6.240024771071821</v>
+        <v>6.365281349694859</v>
       </c>
       <c r="D3">
-        <v>4.293782082063956</v>
+        <v>4.435938336585437</v>
       </c>
       <c r="E3">
-        <v>7.060077662034788</v>
+        <v>6.932155562864804</v>
       </c>
       <c r="F3">
-        <v>27.68719590959899</v>
+        <v>26.47668816265302</v>
       </c>
       <c r="G3">
-        <v>34.83580977658704</v>
+        <v>32.83420634003985</v>
       </c>
       <c r="I3">
-        <v>4.27472957476692</v>
+        <v>3.994573308617249</v>
       </c>
       <c r="J3">
-        <v>12.21451260831615</v>
+        <v>11.76820565637144</v>
       </c>
       <c r="K3">
-        <v>19.63923882735682</v>
+        <v>18.53521294286198</v>
       </c>
       <c r="L3">
-        <v>5.819176155358464</v>
+        <v>14.60840893882736</v>
       </c>
       <c r="M3">
-        <v>10.97814884911802</v>
+        <v>12.86568263875636</v>
       </c>
       <c r="N3">
-        <v>6.947440752634601</v>
+        <v>5.67714751363569</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.84417657062657</v>
       </c>
       <c r="P3">
-        <v>14.50124634796713</v>
+        <v>7.124281119529201</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.14303676984468</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.23973044210936</v>
+        <v>12.70797453178567</v>
       </c>
       <c r="C4">
-        <v>5.995735838618494</v>
+        <v>6.068644212912665</v>
       </c>
       <c r="D4">
-        <v>4.207943771159191</v>
+        <v>4.343525314007573</v>
       </c>
       <c r="E4">
-        <v>7.030641894867595</v>
+        <v>6.904853719465141</v>
       </c>
       <c r="F4">
-        <v>27.50809244096153</v>
+        <v>26.33339174855976</v>
       </c>
       <c r="G4">
-        <v>34.55347348518134</v>
+        <v>32.66863935253642</v>
       </c>
       <c r="I4">
-        <v>4.405073164001306</v>
+        <v>4.108456431453954</v>
       </c>
       <c r="J4">
-        <v>12.21745316873926</v>
+        <v>11.74860810586657</v>
       </c>
       <c r="K4">
-        <v>19.6363597500121</v>
+        <v>18.55675881648907</v>
       </c>
       <c r="L4">
-        <v>5.833698044379341</v>
+        <v>14.66201712880563</v>
       </c>
       <c r="M4">
-        <v>10.57534829676204</v>
+        <v>12.87423486895365</v>
       </c>
       <c r="N4">
-        <v>6.880318682505628</v>
+        <v>5.691472494250296</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.439374482203</v>
       </c>
       <c r="P4">
-        <v>14.60929029025139</v>
+        <v>7.049444115468006</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.24744261040279</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.00895974423658</v>
+        <v>12.48420976037358</v>
       </c>
       <c r="C5">
-        <v>5.899383655789973</v>
+        <v>5.950676236208464</v>
       </c>
       <c r="D5">
-        <v>4.174212344091901</v>
+        <v>4.307109031489761</v>
       </c>
       <c r="E5">
-        <v>7.018584253613136</v>
+        <v>6.893646715308908</v>
       </c>
       <c r="F5">
-        <v>27.42948887080071</v>
+        <v>26.26902973068272</v>
       </c>
       <c r="G5">
-        <v>34.42745960013869</v>
+        <v>32.5912008058738</v>
       </c>
       <c r="I5">
-        <v>4.461948560864725</v>
+        <v>4.158927719325581</v>
       </c>
       <c r="J5">
-        <v>12.21711605997112</v>
+        <v>11.7383470661884</v>
       </c>
       <c r="K5">
-        <v>19.630568747122</v>
+        <v>18.56074391386932</v>
       </c>
       <c r="L5">
-        <v>5.839402751252133</v>
+        <v>14.67817838955</v>
       </c>
       <c r="M5">
-        <v>10.40635077163864</v>
+        <v>12.87918576169671</v>
       </c>
       <c r="N5">
-        <v>6.854959390860907</v>
+        <v>5.69709248315687</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.26921517379367</v>
       </c>
       <c r="P5">
-        <v>14.65268706399985</v>
+        <v>7.020927709301778</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.28953623286948</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.96386318363401</v>
+        <v>12.44027906726417</v>
       </c>
       <c r="C6">
-        <v>5.889953351533272</v>
+        <v>5.938276111849162</v>
       </c>
       <c r="D6">
-        <v>4.170167997980244</v>
+        <v>4.302600926994686</v>
       </c>
       <c r="E6">
-        <v>7.015998218412374</v>
+        <v>6.891217797379936</v>
       </c>
       <c r="F6">
-        <v>27.40659144077151</v>
+        <v>26.24867336973093</v>
       </c>
       <c r="G6">
-        <v>34.38933549992853</v>
+        <v>32.56180070381795</v>
       </c>
       <c r="I6">
-        <v>4.474591307352747</v>
+        <v>4.17101266595862</v>
       </c>
       <c r="J6">
-        <v>12.2140022433017</v>
+        <v>11.73348114882965</v>
       </c>
       <c r="K6">
-        <v>19.62232522887064</v>
+        <v>18.55441371717019</v>
       </c>
       <c r="L6">
-        <v>5.839886627248243</v>
+        <v>14.67422990906496</v>
       </c>
       <c r="M6">
-        <v>10.37681979473576</v>
+        <v>12.87622518713681</v>
       </c>
       <c r="N6">
-        <v>6.852310617407989</v>
+        <v>5.697592474207312</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.23946956650844</v>
       </c>
       <c r="P6">
-        <v>14.65856352579119</v>
+        <v>7.017728870123826</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.29542498492908</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.21949047268105</v>
+        <v>12.68364432378928</v>
       </c>
       <c r="C7">
-        <v>6.01238963299044</v>
+        <v>6.07745430699959</v>
       </c>
       <c r="D7">
-        <v>4.21168847249945</v>
+        <v>4.351995134100235</v>
       </c>
       <c r="E7">
-        <v>7.028812872965655</v>
+        <v>6.904904810911332</v>
       </c>
       <c r="F7">
-        <v>27.47981782880873</v>
+        <v>26.28982534691782</v>
       </c>
       <c r="G7">
-        <v>34.50446058314435</v>
+        <v>32.68600084550825</v>
       </c>
       <c r="I7">
-        <v>4.414108589384229</v>
+        <v>4.11945786817801</v>
       </c>
       <c r="J7">
-        <v>12.20894203248236</v>
+        <v>11.69982983994042</v>
       </c>
       <c r="K7">
-        <v>19.61618446810282</v>
+        <v>18.52908837104932</v>
       </c>
       <c r="L7">
-        <v>5.832485400629714</v>
+        <v>14.636679911516</v>
       </c>
       <c r="M7">
-        <v>10.56974154495489</v>
+        <v>12.85775870083317</v>
       </c>
       <c r="N7">
-        <v>6.884085859069764</v>
+        <v>5.690274921443154</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.42755953712506</v>
       </c>
       <c r="P7">
-        <v>14.60620840835448</v>
+        <v>7.052658708963035</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.24348799170881</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.30905791982724</v>
+        <v>13.72592926745393</v>
       </c>
       <c r="C8">
-        <v>6.515058020340467</v>
+        <v>6.66670178304413</v>
       </c>
       <c r="D8">
-        <v>4.390471466575685</v>
+        <v>4.554995837317022</v>
       </c>
       <c r="E8">
-        <v>7.090776276225781</v>
+        <v>6.96653689832941</v>
       </c>
       <c r="F8">
-        <v>27.85160220496666</v>
+        <v>26.54947751482202</v>
       </c>
       <c r="G8">
-        <v>35.08671715933272</v>
+        <v>33.17604038489981</v>
       </c>
       <c r="I8">
-        <v>4.150615113886659</v>
+        <v>3.891672773879128</v>
       </c>
       <c r="J8">
-        <v>12.20373189030398</v>
+        <v>11.64822804608259</v>
       </c>
       <c r="K8">
-        <v>19.62078403564528</v>
+        <v>18.46254932141613</v>
       </c>
       <c r="L8">
-        <v>5.802591599750286</v>
+        <v>14.50427070346135</v>
       </c>
       <c r="M8">
-        <v>11.39018376750284</v>
+        <v>12.83817689928219</v>
       </c>
       <c r="N8">
-        <v>7.026898206359392</v>
+        <v>5.660572781072838</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.23793117319643</v>
       </c>
       <c r="P8">
-        <v>14.38291430231706</v>
+        <v>7.210392056675875</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.02493022659886</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.26579216224609</v>
+        <v>15.59755884364212</v>
       </c>
       <c r="C9">
-        <v>7.399279612193184</v>
+        <v>7.726374374038227</v>
       </c>
       <c r="D9">
-        <v>4.729387573311506</v>
+        <v>4.923258221850774</v>
       </c>
       <c r="E9">
-        <v>7.228656657136656</v>
+        <v>7.095936228075593</v>
       </c>
       <c r="F9">
-        <v>28.70880011987187</v>
+        <v>27.22947400881502</v>
       </c>
       <c r="G9">
-        <v>36.41265979607071</v>
+        <v>34.10417143614578</v>
       </c>
       <c r="I9">
-        <v>3.660333112394987</v>
+        <v>3.464355894093628</v>
       </c>
       <c r="J9">
-        <v>12.24256151296257</v>
+        <v>11.7165028878456</v>
       </c>
       <c r="K9">
-        <v>19.71269588003353</v>
+        <v>18.4300212538787</v>
       </c>
       <c r="L9">
-        <v>5.751676698310325</v>
+        <v>14.29366978621851</v>
       </c>
       <c r="M9">
-        <v>12.9106035458748</v>
+        <v>12.99469618043754</v>
       </c>
       <c r="N9">
-        <v>7.321930139079252</v>
+        <v>5.609136042686092</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.8288806465194</v>
       </c>
       <c r="P9">
-        <v>13.96515661450289</v>
+        <v>7.53604042890164</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.6204780557869</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.56436937145476</v>
+        <v>16.81127315396086</v>
       </c>
       <c r="C10">
-        <v>8.012388503077315</v>
+        <v>8.411990201096613</v>
       </c>
       <c r="D10">
-        <v>4.974793639252716</v>
+        <v>5.213633844425687</v>
       </c>
       <c r="E10">
-        <v>7.337007021704806</v>
+        <v>7.207771540826312</v>
       </c>
       <c r="F10">
-        <v>29.37424685930983</v>
+        <v>27.66940600168616</v>
       </c>
       <c r="G10">
-        <v>37.42496604939098</v>
+        <v>35.20314277792156</v>
       </c>
       <c r="I10">
-        <v>3.328476498792866</v>
+        <v>3.181837629713256</v>
       </c>
       <c r="J10">
-        <v>12.28927401840423</v>
+        <v>11.54894308189433</v>
       </c>
       <c r="K10">
-        <v>19.80155468194772</v>
+        <v>18.37129291428286</v>
       </c>
       <c r="L10">
-        <v>5.716920835021322</v>
+        <v>14.09122648919624</v>
       </c>
       <c r="M10">
-        <v>14.06345400453138</v>
+        <v>13.15891586818973</v>
       </c>
       <c r="N10">
-        <v>7.552621600456012</v>
+        <v>5.573116817612181</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.92243890155191</v>
       </c>
       <c r="P10">
-        <v>13.66399398915991</v>
+        <v>7.785760079983266</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.32307531434288</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.10485343773975</v>
+        <v>17.27994197010111</v>
       </c>
       <c r="C11">
-        <v>8.303761731623226</v>
+        <v>8.665050700393873</v>
       </c>
       <c r="D11">
-        <v>5.090373621892094</v>
+        <v>5.39117284426609</v>
       </c>
       <c r="E11">
-        <v>7.385300484847818</v>
+        <v>7.276001766089585</v>
       </c>
       <c r="F11">
-        <v>29.64657199723969</v>
+        <v>27.6854291458889</v>
       </c>
       <c r="G11">
-        <v>37.82839511050163</v>
+        <v>36.29003192758285</v>
       </c>
       <c r="I11">
-        <v>3.197877784385407</v>
+        <v>3.081538435450777</v>
       </c>
       <c r="J11">
-        <v>12.30227082420771</v>
+        <v>11.09402046909064</v>
       </c>
       <c r="K11">
-        <v>19.8174333836474</v>
+        <v>18.2359356883844</v>
       </c>
       <c r="L11">
-        <v>5.699793931788088</v>
+        <v>13.91634861857668</v>
       </c>
       <c r="M11">
-        <v>14.55511950307383</v>
+        <v>13.16213148191615</v>
       </c>
       <c r="N11">
-        <v>7.665802094795958</v>
+        <v>5.554963901883181</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.3402197880609</v>
       </c>
       <c r="P11">
-        <v>13.523241826495</v>
+        <v>7.902353693134417</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.17528645735715</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.31687730853687</v>
+        <v>17.46070290692236</v>
       </c>
       <c r="C12">
-        <v>8.400682563519499</v>
+        <v>8.738572779612195</v>
       </c>
       <c r="D12">
-        <v>5.130807668898722</v>
+        <v>5.460104141104051</v>
       </c>
       <c r="E12">
-        <v>7.405222918392234</v>
+        <v>7.305836789941489</v>
       </c>
       <c r="F12">
-        <v>29.77315120202502</v>
+        <v>27.69481129356565</v>
       </c>
       <c r="G12">
-        <v>38.02067875671028</v>
+        <v>36.8233142400609</v>
       </c>
       <c r="I12">
-        <v>3.141406659308334</v>
+        <v>3.035670123244258</v>
       </c>
       <c r="J12">
-        <v>12.31515992953006</v>
+        <v>10.89080850752398</v>
       </c>
       <c r="K12">
-        <v>19.84153503649343</v>
+        <v>18.19050897018963</v>
       </c>
       <c r="L12">
-        <v>5.694483605194607</v>
+        <v>13.85481077083565</v>
       </c>
       <c r="M12">
-        <v>14.73984042055108</v>
+        <v>13.16923327058984</v>
       </c>
       <c r="N12">
-        <v>7.705754203095527</v>
+        <v>5.54908696665009</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.49161401732484</v>
       </c>
       <c r="P12">
-        <v>13.47286236975655</v>
+        <v>7.942962036491462</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.12025226279593</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27367227765296</v>
+        <v>17.4243600832296</v>
       </c>
       <c r="C13">
-        <v>8.377504209912553</v>
+        <v>8.720641365786133</v>
       </c>
       <c r="D13">
-        <v>5.121509326590036</v>
+        <v>5.444450807620519</v>
       </c>
       <c r="E13">
-        <v>7.401203930329782</v>
+        <v>7.299565529769906</v>
       </c>
       <c r="F13">
-        <v>29.75019811911657</v>
+        <v>27.6978033545838</v>
       </c>
       <c r="G13">
-        <v>37.98667798880611</v>
+        <v>36.71197252413588</v>
       </c>
       <c r="I13">
-        <v>3.15186415864594</v>
+        <v>3.043530702848111</v>
       </c>
       <c r="J13">
-        <v>12.313789455238</v>
+        <v>10.93726594997769</v>
       </c>
       <c r="K13">
-        <v>19.83970042496185</v>
+        <v>18.20387957682843</v>
       </c>
       <c r="L13">
-        <v>5.69583861962713</v>
+        <v>13.87065473919433</v>
       </c>
       <c r="M13">
-        <v>14.70073292119688</v>
+        <v>13.17049342433094</v>
       </c>
       <c r="N13">
-        <v>7.696499633156022</v>
+        <v>5.550544359763587</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.45989865615203</v>
       </c>
       <c r="P13">
-        <v>13.4842509121454</v>
+        <v>7.93361090235322</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.13247140249917</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.12335286986057</v>
+        <v>17.29592887483654</v>
       </c>
       <c r="C14">
-        <v>8.310750141997767</v>
+        <v>8.670209576013466</v>
       </c>
       <c r="D14">
-        <v>5.09344822220145</v>
+        <v>5.396493953438004</v>
       </c>
       <c r="E14">
-        <v>7.387054825547244</v>
+        <v>7.278519082989606</v>
       </c>
       <c r="F14">
-        <v>29.65881968420402</v>
+        <v>27.68835741563928</v>
       </c>
       <c r="G14">
-        <v>37.8473717279206</v>
+        <v>36.3353096735506</v>
       </c>
       <c r="I14">
-        <v>3.192505188800772</v>
+        <v>3.076902914830256</v>
       </c>
       <c r="J14">
-        <v>12.30392805618518</v>
+        <v>11.0785166422273</v>
       </c>
       <c r="K14">
-        <v>19.8208422448001</v>
+        <v>18.2337378307673</v>
       </c>
       <c r="L14">
-        <v>5.699446771178627</v>
+        <v>13.91240377858668</v>
       </c>
       <c r="M14">
-        <v>14.57060969961885</v>
+        <v>13.16390645264007</v>
       </c>
       <c r="N14">
-        <v>7.66881128361288</v>
+        <v>5.554561951641703</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.35306556477135</v>
       </c>
       <c r="P14">
-        <v>13.51932612406623</v>
+        <v>7.905436564292835</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.17091976583856</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.02619208019506</v>
+        <v>17.21175451201396</v>
       </c>
       <c r="C15">
-        <v>8.274415352513229</v>
+        <v>8.643140833773248</v>
       </c>
       <c r="D15">
-        <v>5.077424446950209</v>
+        <v>5.368924509200458</v>
       </c>
       <c r="E15">
-        <v>7.377861282849494</v>
+        <v>7.265435494740087</v>
       </c>
       <c r="F15">
-        <v>29.59437713064987</v>
+        <v>27.67187133509011</v>
       </c>
       <c r="G15">
-        <v>37.74742450248281</v>
+        <v>36.10125467443549</v>
       </c>
       <c r="I15">
-        <v>3.220836045202657</v>
+        <v>3.101440247043675</v>
       </c>
       <c r="J15">
-        <v>12.29514752215821</v>
+        <v>11.1579630797266</v>
       </c>
       <c r="K15">
-        <v>19.80271605344512</v>
+        <v>18.24449646768635</v>
       </c>
       <c r="L15">
-        <v>5.701244470600673</v>
+        <v>13.93249093633649</v>
       </c>
       <c r="M15">
-        <v>14.48939061450823</v>
+        <v>13.15411313383827</v>
       </c>
       <c r="N15">
-        <v>7.653155060800517</v>
+        <v>5.556645415670817</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.28546489169405</v>
       </c>
       <c r="P15">
-        <v>13.53975359354471</v>
+        <v>7.889365288899179</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.19367432592975</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.48946316383043</v>
+        <v>16.7411913919374</v>
       </c>
       <c r="C16">
-        <v>8.033823194630568</v>
+        <v>8.437613919819139</v>
       </c>
       <c r="D16">
-        <v>4.977486840273841</v>
+        <v>5.212840155219459</v>
       </c>
       <c r="E16">
-        <v>7.329179517866935</v>
+        <v>7.199098851092316</v>
       </c>
       <c r="F16">
-        <v>29.28306321661156</v>
+        <v>27.59485968133337</v>
       </c>
       <c r="G16">
-        <v>37.27250062647666</v>
+        <v>35.02027743983029</v>
       </c>
       <c r="I16">
-        <v>3.363560323206136</v>
+        <v>3.219709624154024</v>
       </c>
       <c r="J16">
-        <v>12.26450266187904</v>
+        <v>11.55094768787584</v>
       </c>
       <c r="K16">
-        <v>19.74385658718496</v>
+        <v>18.3259221550268</v>
       </c>
       <c r="L16">
-        <v>5.71446007088818</v>
+        <v>14.06213387816562</v>
       </c>
       <c r="M16">
-        <v>14.02220271667728</v>
+        <v>13.1168136723543</v>
       </c>
       <c r="N16">
-        <v>7.556040556160588</v>
+        <v>5.571072345143409</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.88555691575484</v>
       </c>
       <c r="P16">
-        <v>13.66401497776517</v>
+        <v>7.78866274418524</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.32639869289436</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.15264732135925</v>
+        <v>16.43806189590692</v>
       </c>
       <c r="C17">
-        <v>7.883876448503618</v>
+        <v>8.294431199776993</v>
       </c>
       <c r="D17">
-        <v>4.915724856519792</v>
+        <v>5.125347977901012</v>
       </c>
       <c r="E17">
-        <v>7.299745384911947</v>
+        <v>7.162838318443511</v>
       </c>
       <c r="F17">
-        <v>29.09492474631868</v>
+        <v>27.51711738444533</v>
       </c>
       <c r="G17">
-        <v>36.98467923935868</v>
+        <v>34.50103021784365</v>
       </c>
       <c r="I17">
-        <v>3.452452760224231</v>
+        <v>3.294612799484909</v>
       </c>
       <c r="J17">
-        <v>12.24714780769893</v>
+        <v>11.71795579110908</v>
       </c>
       <c r="K17">
-        <v>19.70985940639918</v>
+        <v>18.35911095998927</v>
       </c>
       <c r="L17">
-        <v>5.722759391469101</v>
+        <v>14.12898580623725</v>
       </c>
       <c r="M17">
-        <v>13.72840746610963</v>
+        <v>13.08395808563912</v>
       </c>
       <c r="N17">
-        <v>7.49701673588366</v>
+        <v>5.579975474190753</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.62352399328302</v>
       </c>
       <c r="P17">
-        <v>13.74059287956377</v>
+        <v>7.726286796915172</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.40604374287305</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.96829827251413</v>
+        <v>16.27035421302352</v>
       </c>
       <c r="C18">
-        <v>7.784064975356848</v>
+        <v>8.192051910490488</v>
       </c>
       <c r="D18">
-        <v>4.876861905002769</v>
+        <v>5.074868319420544</v>
       </c>
       <c r="E18">
-        <v>7.284407860363003</v>
+        <v>7.144920165103458</v>
       </c>
       <c r="F18">
-        <v>29.01027660400666</v>
+        <v>27.48339201687113</v>
       </c>
       <c r="G18">
-        <v>36.85916393355345</v>
+        <v>34.29036180194508</v>
       </c>
       <c r="I18">
-        <v>3.495444510937251</v>
+        <v>3.328349748492681</v>
       </c>
       <c r="J18">
-        <v>12.24498583587552</v>
+        <v>11.79270126286904</v>
       </c>
       <c r="K18">
-        <v>19.7083121213452</v>
+        <v>18.38845086223792</v>
       </c>
       <c r="L18">
-        <v>5.72869417537246</v>
+        <v>14.17510670672668</v>
       </c>
       <c r="M18">
-        <v>13.55943064465933</v>
+        <v>13.07409746782931</v>
       </c>
       <c r="N18">
-        <v>7.4599673204059</v>
+        <v>5.586098219783903</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.46920175134281</v>
       </c>
       <c r="P18">
-        <v>13.78757434586664</v>
+        <v>7.686972194682435</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.45316215744416</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.89606185983201</v>
+        <v>16.20346786240338</v>
       </c>
       <c r="C19">
-        <v>7.759890585135139</v>
+        <v>8.166773450813743</v>
       </c>
       <c r="D19">
-        <v>4.866129144731969</v>
+        <v>5.060704648133655</v>
       </c>
       <c r="E19">
-        <v>7.278138735457057</v>
+        <v>7.138043727969181</v>
       </c>
       <c r="F19">
-        <v>28.96444724480354</v>
+        <v>27.45335551388812</v>
       </c>
       <c r="G19">
-        <v>36.78705613575568</v>
+        <v>34.19852008580392</v>
       </c>
       <c r="I19">
-        <v>3.516681657973963</v>
+        <v>3.347744427220533</v>
       </c>
       <c r="J19">
-        <v>12.23871378452063</v>
+        <v>11.80770566103537</v>
       </c>
       <c r="K19">
-        <v>19.69461765974989</v>
+        <v>18.38495213307855</v>
       </c>
       <c r="L19">
-        <v>5.729874624961652</v>
+        <v>14.18043034348979</v>
       </c>
       <c r="M19">
-        <v>13.49971036213088</v>
+        <v>13.0607353418484</v>
       </c>
       <c r="N19">
-        <v>7.450011323052284</v>
+        <v>5.587414447760538</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.41390220097847</v>
       </c>
       <c r="P19">
-        <v>13.80134444110591</v>
+        <v>7.676137723591057</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.46747021327824</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.18973073364019</v>
+        <v>16.4718064417252</v>
       </c>
       <c r="C20">
-        <v>7.898943064090497</v>
+        <v>8.309276117405027</v>
       </c>
       <c r="D20">
-        <v>4.922068166259774</v>
+        <v>5.134106856560554</v>
       </c>
       <c r="E20">
-        <v>7.302974315321436</v>
+        <v>7.166644739277873</v>
       </c>
       <c r="F20">
-        <v>29.11660324187628</v>
+        <v>27.5282237159347</v>
       </c>
       <c r="G20">
-        <v>37.01820691388675</v>
+        <v>34.55396724201442</v>
       </c>
       <c r="I20">
-        <v>3.442251021623389</v>
+        <v>3.285731390339048</v>
       </c>
       <c r="J20">
-        <v>12.24951307836482</v>
+        <v>11.70363920472298</v>
       </c>
       <c r="K20">
-        <v>19.71475069511068</v>
+        <v>18.35745640112047</v>
       </c>
       <c r="L20">
-        <v>5.721954080487972</v>
+        <v>14.12330771905738</v>
       </c>
       <c r="M20">
-        <v>13.76016379968442</v>
+        <v>13.08877291266046</v>
       </c>
       <c r="N20">
-        <v>7.503019796931</v>
+        <v>5.579103031973585</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.65225683131676</v>
       </c>
       <c r="P20">
-        <v>13.73264584960107</v>
+        <v>7.732693029736522</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.39778715673997</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.1548488052402</v>
+        <v>17.30934059504155</v>
       </c>
       <c r="C21">
-        <v>8.343705843079011</v>
+        <v>8.674478458485673</v>
       </c>
       <c r="D21">
-        <v>5.105088659918373</v>
+        <v>5.428850072798981</v>
       </c>
       <c r="E21">
-        <v>7.389623261512851</v>
+        <v>7.289669322342125</v>
       </c>
       <c r="F21">
-        <v>29.66105557907389</v>
+        <v>27.61327962922616</v>
       </c>
       <c r="G21">
-        <v>37.84616023642715</v>
+        <v>36.63074563890355</v>
       </c>
       <c r="I21">
-        <v>3.190156875658965</v>
+        <v>3.080220482503902</v>
       </c>
       <c r="J21">
-        <v>12.29872046745888</v>
+        <v>10.90670978707641</v>
       </c>
       <c r="K21">
-        <v>19.80724755019683</v>
+        <v>18.17775479510758</v>
       </c>
       <c r="L21">
-        <v>5.697174085619677</v>
+        <v>13.86578978395301</v>
       </c>
       <c r="M21">
-        <v>14.60613651095629</v>
+        <v>13.12834896611935</v>
       </c>
       <c r="N21">
-        <v>7.680516303690144</v>
+        <v>5.552111950689383</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.36490640384159</v>
       </c>
       <c r="P21">
-        <v>13.50596211290375</v>
+        <v>7.915497945338097</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.15402704280259</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.77700861131768</v>
+        <v>17.84511936669818</v>
       </c>
       <c r="C22">
-        <v>8.609868537794995</v>
+        <v>8.882282548719211</v>
       </c>
       <c r="D22">
-        <v>5.218791139910189</v>
+        <v>5.61991941376474</v>
       </c>
       <c r="E22">
-        <v>7.449642203891742</v>
+        <v>7.376664279850212</v>
       </c>
       <c r="F22">
-        <v>30.05726384448592</v>
+        <v>27.68506419395974</v>
       </c>
       <c r="G22">
-        <v>38.45201935221207</v>
+        <v>38.16083829063074</v>
       </c>
       <c r="I22">
-        <v>3.017399580762355</v>
+        <v>2.935507883855697</v>
       </c>
       <c r="J22">
-        <v>12.34599076814913</v>
+        <v>10.38973974417243</v>
       </c>
       <c r="K22">
-        <v>19.89903584175924</v>
+        <v>18.07410999166321</v>
       </c>
       <c r="L22">
-        <v>5.683142883117648</v>
+        <v>13.70837253480848</v>
       </c>
       <c r="M22">
-        <v>15.13923239748701</v>
+        <v>13.17398020011066</v>
       </c>
       <c r="N22">
-        <v>7.793689873429198</v>
+        <v>5.536372082281429</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.80840849407932</v>
       </c>
       <c r="P22">
-        <v>13.36274321611704</v>
+        <v>8.031009499262758</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.99797621052107</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.46248395080163</v>
+        <v>17.58486668559075</v>
       </c>
       <c r="C23">
-        <v>8.452615920877887</v>
+        <v>8.772633782390576</v>
       </c>
       <c r="D23">
-        <v>5.15420648831808</v>
+        <v>5.503337129793565</v>
       </c>
       <c r="E23">
-        <v>7.419387248089904</v>
+        <v>7.327074026168797</v>
       </c>
       <c r="F23">
-        <v>29.87446566020369</v>
+        <v>27.71416750911849</v>
       </c>
       <c r="G23">
-        <v>38.17814332572234</v>
+        <v>37.22440099337368</v>
       </c>
       <c r="I23">
-        <v>3.097919490736937</v>
+        <v>2.99789885370792</v>
       </c>
       <c r="J23">
-        <v>12.3300382010463</v>
+        <v>10.75549777435902</v>
       </c>
       <c r="K23">
-        <v>19.87238579770066</v>
+        <v>18.17205134230841</v>
       </c>
       <c r="L23">
-        <v>5.692032140348857</v>
+        <v>13.82301995413171</v>
       </c>
       <c r="M23">
-        <v>14.86017914267274</v>
+        <v>13.18287185561701</v>
       </c>
       <c r="N23">
-        <v>7.728845256289335</v>
+        <v>5.546151472276874</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.58892131054846</v>
       </c>
       <c r="P23">
-        <v>13.44277386156506</v>
+        <v>7.966329638057738</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.08587643638507</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.19839749248515</v>
+        <v>16.48156971238021</v>
       </c>
       <c r="C24">
-        <v>7.865582042338066</v>
+        <v>8.27410350657634</v>
       </c>
       <c r="D24">
-        <v>4.912520528636224</v>
+        <v>5.12354200697001</v>
       </c>
       <c r="E24">
-        <v>7.304538091366992</v>
+        <v>7.167849809460584</v>
       </c>
       <c r="F24">
-        <v>29.15426359715478</v>
+        <v>27.56915684097707</v>
       </c>
       <c r="G24">
-        <v>37.08462699812233</v>
+        <v>34.60915900689374</v>
       </c>
       <c r="I24">
-        <v>3.429291036058446</v>
+        <v>3.268973493999213</v>
       </c>
       <c r="J24">
-        <v>12.26387303766378</v>
+        <v>11.72483000436442</v>
       </c>
       <c r="K24">
-        <v>19.74900800092605</v>
+        <v>18.39229810064921</v>
       </c>
       <c r="L24">
-        <v>5.724624473612717</v>
+        <v>14.15170636739149</v>
       </c>
       <c r="M24">
-        <v>13.75139289641354</v>
+        <v>13.11277093039037</v>
       </c>
       <c r="N24">
-        <v>7.49333740644648</v>
+        <v>5.581577919009987</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.64468039942868</v>
       </c>
       <c r="P24">
-        <v>13.74215996802198</v>
+        <v>7.722956223871394</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.40565270115366</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.73281129465184</v>
+        <v>15.09380650115958</v>
       </c>
       <c r="C25">
-        <v>7.195533011025367</v>
+        <v>7.49131072368876</v>
       </c>
       <c r="D25">
-        <v>4.645324553478403</v>
+        <v>4.825010496807129</v>
       </c>
       <c r="E25">
-        <v>7.186984500824551</v>
+        <v>7.054216065210597</v>
       </c>
       <c r="F25">
-        <v>28.4210793465721</v>
+        <v>27.01461608744691</v>
       </c>
       <c r="G25">
-        <v>35.96165656734852</v>
+        <v>33.67109549565965</v>
       </c>
       <c r="I25">
-        <v>3.803904593275487</v>
+        <v>3.592837927009475</v>
       </c>
       <c r="J25">
-        <v>12.21312414665115</v>
+        <v>11.73737500178862</v>
       </c>
       <c r="K25">
-        <v>19.6467591130062</v>
+        <v>18.41330106084648</v>
       </c>
       <c r="L25">
-        <v>5.762608747716238</v>
+        <v>14.33406970607126</v>
       </c>
       <c r="M25">
-        <v>12.48104193255598</v>
+        <v>12.92005342978362</v>
       </c>
       <c r="N25">
-        <v>7.246898016857594</v>
+        <v>5.620608314291395</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.3922726655215</v>
       </c>
       <c r="P25">
-        <v>14.07078754465026</v>
+        <v>7.453347159800168</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.72585386532699</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
